--- a/userinfo/userinfo.xlsx
+++ b/userinfo/userinfo.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sample_11st\userinfo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A334C7E5-53C6-4973-BD1C-8A9A1E40ECB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{339AB7D7-40AF-4DB4-AB89-03900C8B982C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -89,26 +83,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9999888877776666</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0000111122223333</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0222366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM/YY/CVC</t>
+    <t>5144732000591044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0221967</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD Info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD Num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cert ExpirationDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cert PW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fhEh1emdskdi!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -301,7 +319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -495,19 +513,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658388AC-9A9A-4F3E-962A-A714F213C9D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -587,21 +605,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBA210B-6C27-4A8F-A117-1E37CA4FEFA9}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="16.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
+    <col min="3" max="3" width="16.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -609,16 +630,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -626,16 +653,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6">
-        <v>1234</v>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -643,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6">
         <v>4455666</v>

--- a/userinfo/userinfo.xlsx
+++ b/userinfo/userinfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,6 +120,14 @@
   </si>
   <si>
     <t>fhEh1emdskdi!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,7 +617,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -684,6 +692,12 @@
       <c r="E3" s="6">
         <v>7777</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/userinfo/userinfo.xlsx
+++ b/userinfo/userinfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>hello</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB PW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,10 +618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -630,7 +634,7 @@
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -652,8 +656,11 @@
       <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -675,8 +682,11 @@
       <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="H2" s="7">
+        <v>112233</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -697,6 +707,9 @@
       </c>
       <c r="G3" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="H3" s="7">
+        <v>778877</v>
       </c>
     </row>
   </sheetData>

--- a/userinfo/userinfo.xlsx
+++ b/userinfo/userinfo.xlsx
@@ -1,68 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="mallIDPW" sheetId="3" r:id="rId1"/>
+    <sheet name="usertinfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CARD 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARD 2</t>
-  </si>
-  <si>
-    <t>CARD 3</t>
-  </si>
-  <si>
-    <t>CARD 4</t>
-  </si>
-  <si>
-    <t>MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CARD PW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICED</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GS8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -132,6 +94,69 @@
   </si>
   <si>
     <t>PB PW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nagarage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user1 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user1 PW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevenst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmarket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qmdlvl1!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inmanaged</t>
+  </si>
+  <si>
+    <t>inmanaged@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inmanaged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hee.testing@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>llqwerty</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -204,12 +229,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +236,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -228,9 +253,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -533,86 +555,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.69921875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1234</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5678</v>
-      </c>
-      <c r="E2" s="4">
-        <v>8765</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4321</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="4">
-        <v>366</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L3" s="3"/>
+      <c r="C1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -620,95 +704,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="16.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="16.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5">
+        <v>112233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4455666</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7777</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="7">
-        <v>112233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6">
-        <v>4455666</v>
-      </c>
-      <c r="E3" s="6">
-        <v>7777</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>778877</v>
       </c>
     </row>

--- a/userinfo/userinfo.xlsx
+++ b/userinfo/userinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mallIDPW" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -157,6 +157,14 @@
   </si>
   <si>
     <t>llqwerty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2 PW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -557,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -580,10 +588,10 @@
         <v>23</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -704,7 +712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
